--- a/P00_Raw/D02_RTNF/Time_interval_between_sessions.xlsx
+++ b/P00_Raw/D02_RTNF/Time_interval_between_sessions.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spring/Documents/Research/Reliability_NPS/P00_Raw/D02_RTNF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE3777F-F01B-B440-93E4-93291BDC5B0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF295E1-F3BD-754A-B3B8-B20416E50562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20860" yWindow="460" windowWidth="12740" windowHeight="18960" xr2:uid="{1D5008A8-EE42-0A4B-AD34-5E6B07146B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$32</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>SubID</t>
   </si>
@@ -140,17 +143,29 @@
   <si>
     <t>M80342940</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M80318059</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>M80354524</t>
+  </si>
+  <si>
+    <t>Age</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -162,7 +177,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -193,7 +208,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -209,7 +224,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -505,18 +520,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9875C0-2CAD-2F4F-8BC3-EE4E3A5EE096}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,8 +547,11 @@
       <c r="E1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="17">
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -549,8 +567,11 @@
       <c r="E2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="17">
+      <c r="F2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>7</v>
       </c>
@@ -566,8 +587,11 @@
       <c r="E3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="17">
+      <c r="F3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>8</v>
       </c>
@@ -583,8 +607,11 @@
       <c r="E4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="17">
+      <c r="F4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10</v>
       </c>
@@ -600,8 +627,11 @@
       <c r="E5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="17">
+      <c r="F5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>11</v>
       </c>
@@ -617,8 +647,11 @@
       <c r="E6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="17">
+      <c r="F6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>12</v>
       </c>
@@ -634,8 +667,11 @@
       <c r="E7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="17">
+      <c r="F7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>14</v>
       </c>
@@ -651,8 +687,11 @@
       <c r="E8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="17">
+      <c r="F8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>15</v>
       </c>
@@ -668,8 +707,11 @@
       <c r="E9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="17">
+      <c r="F9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>16</v>
       </c>
@@ -685,8 +727,11 @@
       <c r="E10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="17">
+      <c r="F10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>18</v>
       </c>
@@ -702,8 +747,11 @@
       <c r="E11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="17">
+      <c r="F11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>21</v>
       </c>
@@ -719,8 +767,11 @@
       <c r="E12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="17">
+      <c r="F12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>23</v>
       </c>
@@ -736,8 +787,11 @@
       <c r="E13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="17">
+      <c r="F13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>24</v>
       </c>
@@ -753,266 +807,357 @@
       <c r="E14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="17">
+      <c r="F14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>26</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
         <v>6</v>
       </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17">
-      <c r="A16">
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>28</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>3</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>8</v>
       </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17">
-      <c r="A17">
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>29</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>4</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>6</v>
       </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17">
-      <c r="A18">
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>33</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>2</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17">
-      <c r="A19">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>34</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17">
-      <c r="A20">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>35</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <v>3</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="17">
-      <c r="A21">
-        <v>37</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17">
-      <c r="A22">
-        <v>38</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
       </c>
       <c r="D22">
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17">
+        <v>32</v>
+      </c>
+      <c r="F22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23">
+        <v>37</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>38</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>39</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C23">
+      <c r="C25">
         <v>8</v>
       </c>
-      <c r="D23">
+      <c r="D25">
         <v>5</v>
       </c>
-      <c r="E23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17">
-      <c r="A24">
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>41</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C24">
+      <c r="C26">
         <v>2</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17">
-      <c r="A25">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>43</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C25">
+      <c r="C27">
         <v>12</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17">
-      <c r="A26">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>48</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
         <v>6</v>
       </c>
-      <c r="E26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17">
-      <c r="A27">
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>49</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C27">
+      <c r="C29">
         <v>20</v>
       </c>
-      <c r="D27">
+      <c r="D29">
         <v>8</v>
       </c>
-      <c r="E27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="17">
-      <c r="A28">
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>50</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C28">
+      <c r="C30">
         <v>14</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="C29">
-        <f>AVERAGE(C2:C28)</f>
-        <v>5.1481481481481479</v>
-      </c>
-      <c r="D29">
-        <f>AVERAGE(D2:D28)</f>
-        <v>4.4814814814814818</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="C30">
-        <f>STDEV(C2:C28)</f>
-        <v>4.6633077044560061</v>
-      </c>
       <c r="D30">
-        <f>STDEV(D2:D28)</f>
-        <v>2.5924501385364622</v>
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <f>AVERAGE(C2:C30)</f>
+        <v>4.931034482758621</v>
+      </c>
+      <c r="D31">
+        <f>AVERAGE(D2:D30)</f>
+        <v>4.7931034482758621</v>
+      </c>
+      <c r="F31">
+        <f>AVERAGE(F2:F30)</f>
+        <v>30.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <f>STDEV(C2:C30)</f>
+        <v>4.5742371298607862</v>
+      </c>
+      <c r="D32">
+        <f>STDEV(D2:D30)</f>
+        <v>2.8078882551130784</v>
+      </c>
+      <c r="F32">
+        <f>STDEV(F2:F30)</f>
+        <v>9.7510683175400494</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E32" xr:uid="{5036EF2D-68D2-0547-A958-B2085CD8543E}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/P00_Raw/D02_RTNF/Time_interval_between_sessions.xlsx
+++ b/P00_Raw/D02_RTNF/Time_interval_between_sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spring/Documents/Research/Reliability_NPS/P00_Raw/D02_RTNF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF295E1-F3BD-754A-B3B8-B20416E50562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D35520-06A4-7943-BF58-5D266FF00452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20860" yWindow="460" windowWidth="12740" windowHeight="18960" xr2:uid="{1D5008A8-EE42-0A4B-AD34-5E6B07146B5C}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -907,6 +907,9 @@
       <c r="E19" t="s">
         <v>35</v>
       </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -1139,7 +1142,7 @@
       </c>
       <c r="F31">
         <f>AVERAGE(F2:F30)</f>
-        <v>30.25</v>
+        <v>29.896551724137932</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1153,7 +1156,7 @@
       </c>
       <c r="F32">
         <f>STDEV(F2:F30)</f>
-        <v>9.7510683175400494</v>
+        <v>9.7627017176387287</v>
       </c>
     </row>
   </sheetData>
